--- a/GR Done.xlsx
+++ b/GR Done.xlsx
@@ -183,7 +183,7 @@
     <t>114A</t>
   </si>
   <si>
-    <t>114-A</t>
+    <t>114 A</t>
   </si>
 </sst>
 </file>
@@ -6251,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GR Done.xlsx
+++ b/GR Done.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="1168" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>18</v>
@@ -6177,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>18</v>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>18</v>
@@ -6251,7 +6251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>

--- a/GR Done.xlsx
+++ b/GR Done.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1168" sheetId="1" r:id="rId1"/>
@@ -666,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
@@ -6251,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,7 +6871,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G15" s="7">
         <v>1</v>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J15" s="7">
         <v>140</v>
@@ -9335,7 +9335,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G71" s="7">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J71" s="7">
         <v>109</v>
@@ -9379,7 +9379,7 @@
         <v>50</v>
       </c>
       <c r="F72" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G72" s="7">
         <v>1</v>
@@ -9388,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J72" s="7">
         <v>109</v>
@@ -9423,7 +9423,7 @@
         <v>50</v>
       </c>
       <c r="F73" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J73" s="7">
         <v>109</v>
@@ -9467,7 +9467,7 @@
         <v>50</v>
       </c>
       <c r="F74" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G74" s="7">
         <v>1</v>
@@ -9476,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J74" s="7">
         <v>109</v>
@@ -9511,7 +9511,7 @@
         <v>50</v>
       </c>
       <c r="F75" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G75" s="7">
         <v>1</v>
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J75" s="7">
         <v>109</v>
@@ -9555,7 +9555,7 @@
         <v>50</v>
       </c>
       <c r="F76" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G76" s="7">
         <v>1</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J76" s="7">
         <v>109</v>
@@ -9599,7 +9599,7 @@
         <v>50</v>
       </c>
       <c r="F77" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J77" s="7">
         <v>109</v>
@@ -9643,7 +9643,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
@@ -9652,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J78" s="7">
         <v>109</v>
@@ -9687,7 +9687,7 @@
         <v>50</v>
       </c>
       <c r="F79" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G79" s="11">
         <v>1</v>
@@ -9695,8 +9695,8 @@
       <c r="H79" s="11">
         <v>1</v>
       </c>
-      <c r="I79" s="11" t="s">
-        <v>24</v>
+      <c r="I79" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="J79" s="11">
         <v>109</v>
@@ -9731,7 +9731,7 @@
         <v>50</v>
       </c>
       <c r="F80" s="3">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -9775,7 +9775,7 @@
         <v>50</v>
       </c>
       <c r="F81" s="7">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
@@ -9819,7 +9819,7 @@
         <v>50</v>
       </c>
       <c r="F82" s="7">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G82" s="7">
         <v>1</v>
@@ -9863,7 +9863,7 @@
         <v>50</v>
       </c>
       <c r="F83" s="7">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G83" s="7">
         <v>1</v>
@@ -9907,7 +9907,7 @@
         <v>50</v>
       </c>
       <c r="F84" s="7">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G84" s="7">
         <v>1</v>
@@ -9951,7 +9951,7 @@
         <v>50</v>
       </c>
       <c r="F85" s="7">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -9995,7 +9995,7 @@
         <v>50</v>
       </c>
       <c r="F86" s="7">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G86" s="7">
         <v>1</v>
@@ -10039,7 +10039,7 @@
         <v>50</v>
       </c>
       <c r="F87" s="7">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="G87" s="7">
         <v>1</v>
@@ -10083,7 +10083,7 @@
         <v>50</v>
       </c>
       <c r="F88" s="7">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="G88" s="7">
         <v>1</v>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J88" s="7">
         <v>141</v>
@@ -10127,7 +10127,7 @@
         <v>50</v>
       </c>
       <c r="F89" s="7">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
@@ -10136,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J89" s="7">
         <v>141</v>
@@ -10171,7 +10171,7 @@
         <v>50</v>
       </c>
       <c r="F90" s="7">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="G90" s="7">
         <v>1</v>
@@ -10180,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J90" s="7">
         <v>141</v>
@@ -10215,7 +10215,7 @@
         <v>50</v>
       </c>
       <c r="F91" s="7">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="G91" s="7">
         <v>1</v>
@@ -10224,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J91" s="7">
         <v>141</v>
@@ -10259,7 +10259,7 @@
         <v>50</v>
       </c>
       <c r="F92" s="7">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="G92" s="7">
         <v>1</v>
@@ -10268,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J92" s="7">
         <v>141</v>
